--- a/材料清单.xlsx
+++ b/材料清单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>若干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,6 +249,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -280,6 +301,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -483,18 +521,16 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -502,41 +538,43 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" t="s">
-        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -545,16 +583,25 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/材料清单.xlsx
+++ b/材料清单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>电源接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -481,7 +485,7 @@
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -500,7 +504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>3</v>
@@ -509,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -518,7 +522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>19</v>
@@ -526,8 +530,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>5</v>
@@ -536,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -547,7 +554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -558,7 +565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -569,7 +576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -580,7 +587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>16</v>
@@ -589,7 +596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>17</v>
